--- a/doc/ue_umg.xlsx
+++ b/doc/ue_umg.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24701"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCE1FA25-F7EA-4E54-9DDD-35AE6150A0D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="778" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="778" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="umg" sheetId="3" r:id="rId1"/>
+    <sheet name="资源初始化" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="119">
   <si>
     <t>Slate</t>
   </si>
@@ -406,11 +406,61 @@
   <si>
     <t>virtual void NativeDestruct()</t>
   </si>
+  <si>
+    <t>例如加载登录界面，里面有各种图片资源等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首先需要加载对应的Class_C，这个里面其实就已经初始化了资源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当通过Class_C创建Login Window的时候，会逐个从蓝图类LoginWindow里面复制各个信息，这个时候也复制了Button按钮的图片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//加载自定义UMG的class，通过这个class创建Widget对象，并显示在界面中。</t>
+  </si>
+  <si>
+    <t>{</t>
+  </si>
+  <si>
+    <t>if (APlayerController* PC = GetWorld()-&gt;GetFirstPlayerController())</t>
+  </si>
+  <si>
+    <t>if (MyWidgetInstance)</t>
+  </si>
+  <si>
+    <t>MyWidgetInstance-&gt;AddToViewport();</t>
+  </si>
+  <si>
+    <t>}</t>
+  </si>
+  <si>
+    <t>if (UClass* MyWidgetClass = LoadClass&lt;UUserWidget&gt;(NULL, TEXT("WidgetBlueprint'/Game/UI/UpdateWindow/UpdateWindow.UpdateWindow_C'")))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>准确是说，应该是LoadClass的时候发生的：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果写在场景里，场景加载的时候就会加载</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代码的话，就是代码加载的时候才会</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在对应的import里面加载？？？！！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -614,23 +664,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -666,23 +699,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -858,10 +874,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A5:F124"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A43" workbookViewId="0">
       <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
@@ -1404,4 +1420,154 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B6:H36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C9" s="4">
+        <v>1</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C13" s="4">
+        <v>2</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="E14" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="19" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C19" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="20" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C20" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="23" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C23" s="4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="25" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="E25" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="26" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="E26" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="27" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="E27" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="28" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="F28" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="29" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="F29" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="30" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="G30" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="31" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="G31" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="32" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="G32" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="33" spans="5:8" x14ac:dyDescent="0.15">
+      <c r="H33" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="34" spans="5:8" x14ac:dyDescent="0.15">
+      <c r="G34" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="35" spans="5:8" x14ac:dyDescent="0.15">
+      <c r="F35" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="36" spans="5:8" x14ac:dyDescent="0.15">
+      <c r="E36" t="s">
+        <v>113</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/doc/ue_umg.xlsx
+++ b/doc/ue_umg.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="778" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="778" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="umg" sheetId="3" r:id="rId1"/>
     <sheet name="资源初始化" sheetId="4" r:id="rId2"/>
+    <sheet name="切场景销毁" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="147">
   <si>
     <t>Slate</t>
   </si>
@@ -454,6 +455,98 @@
   </si>
   <si>
     <t>在对应的import里面加载？？？！！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关卡加载与卸载，会生成很多事件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以在这个里面做很多事情：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>流式关卡加载/卸载监听</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UMG就是监听了这个，然后当World被删除的时候将自己移除的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>// Callback for world cleanup start</t>
+  </si>
+  <si>
+    <t>static FWorldCleanupEvent OnWorldCleanup;</t>
+  </si>
+  <si>
+    <t>// Sent when a ULevel is added to the world via UWorld::AddToWorld</t>
+  </si>
+  <si>
+    <t>static FOnLevelChanged</t>
+  </si>
+  <si>
+    <t>LevelAddedToWorld;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">// Sent when a ULevel is removed from the world via UWorld::RemoveFromWorld or </t>
+  </si>
+  <si>
+    <t xml:space="preserve">// LoadMap (a NULL object means the LoadMap case, because all levels will be </t>
+  </si>
+  <si>
+    <t>// removed from the world without a RemoveFromWorld call for each)</t>
+  </si>
+  <si>
+    <t>LevelRemovedFromWorld;</t>
+  </si>
+  <si>
+    <t>// Just in case we already hooked this delegate, remove the handler.</t>
+  </si>
+  <si>
+    <t>FWorldDelegates::LevelRemovedFromWorld.RemoveAll(this);</t>
+  </si>
+  <si>
+    <t>// Widgets added to the viewport are automatically removed if the persistent level is unloaded.</t>
+  </si>
+  <si>
+    <t>FWorldDelegates::LevelRemovedFromWorld.AddUObject(this, &amp;UUserWidget::OnLevelRemovedFromWorld);</t>
+  </si>
+  <si>
+    <t>void UUserWidget::AddToScreen(ULocalPlayer* Player, int32 ZOrder)</t>
+  </si>
+  <si>
+    <t>窗口显示的时候</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册自己</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void UUserWidget::OnLevelRemovedFromWorld(ULevel* InLevel, UWorld* InWorld)</t>
+  </si>
+  <si>
+    <t>// If the InLevel is null, it's a signal that the entire world is about to disappear, so</t>
+  </si>
+  <si>
+    <t>// go ahead and remove this widget from the viewport, it could be holding onto too many</t>
+  </si>
+  <si>
+    <t>// dangerous actor references that won't carry over into the next world.</t>
+  </si>
+  <si>
+    <t>if ( InLevel == nullptr &amp;&amp; InWorld == GetWorld() )</t>
+  </si>
+  <si>
+    <t>RemoveFromParent();</t>
+  </si>
+  <si>
+    <t>切换场景的时候：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除自己</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1426,7 +1519,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B6:H36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
@@ -1570,4 +1663,183 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B8:O50"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="P42" sqref="P42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B8" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C9" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C14" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C15" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="C18" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="C19" t="s">
+        <v>126</v>
+      </c>
+      <c r="G19" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="C23" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="C24" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="C25" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="C26" t="s">
+        <v>126</v>
+      </c>
+      <c r="F26" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B30" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B31" s="4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="C32" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="C33" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="C35" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="36" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="C36" t="s">
+        <v>135</v>
+      </c>
+      <c r="O36" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B40" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="C41" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="C42" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="D43" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="D44" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="D45" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="D46" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="D47" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="E48" t="s">
+        <v>144</v>
+      </c>
+      <c r="O48" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="49" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D49" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="50" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C50" t="s">
+        <v>113</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/doc/ue_umg.xlsx
+++ b/doc/ue_umg.xlsx
@@ -1,22 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D8683B8-9A1D-4FA0-B91C-9DFF861DBB18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="778" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="778" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="umg" sheetId="3" r:id="rId1"/>
     <sheet name="资源初始化" sheetId="4" r:id="rId2"/>
     <sheet name="切场景销毁" sheetId="5" r:id="rId3"/>
+    <sheet name="animation" sheetId="6" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="7" r:id="rId5"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="185">
   <si>
     <t>Slate</t>
   </si>
@@ -549,11 +552,142 @@
     <t>删除自己</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>帧处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if (FSlateApplication::IsInitialized() &amp;&amp; !bIdleMode)</t>
+  </si>
+  <si>
+    <t>FMoviePlayerProxy::SetIsSlateThreadAllowed(false);</t>
+  </si>
+  <si>
+    <t>FMoviePlayerProxy::SetIsSlateThreadAllowed(true);</t>
+  </si>
+  <si>
+    <t>void FSlateApplication::Tick(ESlateTickType TickType)</t>
+  </si>
+  <si>
+    <t>if (EnumHasAnyFlags(TickType, ESlateTickType::PlatformAndInput))</t>
+  </si>
+  <si>
+    <t>TickPlatform(DeltaTime);</t>
+  </si>
+  <si>
+    <t>if (EnumHasAnyFlags(TickType, ESlateTickType::Time))</t>
+  </si>
+  <si>
+    <t>TickTime();</t>
+  </si>
+  <si>
+    <t>if (EnumHasAnyFlags(TickType, ESlateTickType::Widgets))</t>
+  </si>
+  <si>
+    <t>TickAndDrawWidgets(DeltaTime);</t>
+  </si>
+  <si>
+    <t>void FSlateApplication::TickAndDrawWidgets(float DeltaTime)</t>
+  </si>
+  <si>
+    <t>PreTickEvent.Broadcast(DeltaTime);</t>
+  </si>
+  <si>
+    <t>void UUMGSequenceTickManager::TickWidgetAnimations(float DeltaSeconds)</t>
+  </si>
+  <si>
+    <t>for (auto WidgetIter = WeakUserWidgetData.CreateIterator(); WidgetIter; ++WidgetIter)</t>
+  </si>
+  <si>
+    <t>UUserWidget* UserWidget = WidgetIter.Key().Get();</t>
+  </si>
+  <si>
+    <t>UserWidget-&gt;TickActionsAndAnimation(DeltaSeconds);</t>
+  </si>
+  <si>
+    <t>void UUserWidget::TickActionsAndAnimation(float InDeltaTime)</t>
+  </si>
+  <si>
+    <t>for (int32 Index = 0; Index &lt; ActiveSequencePlayers.Num(); Index++)</t>
+  </si>
+  <si>
+    <t>Player-&gt;Tick(InDeltaTime);</t>
+  </si>
+  <si>
+    <t>void UUMGSequencePlayer::Tick(float DeltaTime)</t>
+  </si>
+  <si>
+    <t>UMG的蓝图动画是怎么跳起来的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FSlateApplication::Get().Tick(ESlateTickType::TimeAndWidgets);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主线程里面TICK的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理器TICK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主线程TICK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Slate的TICK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Slate的Tick和渲染</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新Widget动画</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>遍历所有UserWidget</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UserWidget的TICK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编译所有动画</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单个动画的TICK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>check(IsInGameThread() || TickType == ESlateTickType::Time);</t>
+  </si>
+  <si>
+    <t>!!!!这个地方有些2B,如果不是主线程只允许更新TIME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UUMGSequencePlayer* Player = ActiveSequencePlayers[Index];</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新流程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>例如蓝图动画中设置Image的颜色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -681,6 +815,55 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>579059</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>56205</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55C385B4-72EA-410A-0E83-525849809194}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="628650" y="1066800"/>
+          <a:ext cx="15723809" cy="7561905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
@@ -757,6 +940,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -792,6 +992,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -967,7 +1184,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A5:F124"/>
   <sheetViews>
     <sheetView topLeftCell="A43" workbookViewId="0">
@@ -1516,7 +1733,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B6:H36"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
@@ -1666,10 +1883,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B8:O50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="P42" sqref="P42"/>
     </sheetView>
   </sheetViews>
@@ -1842,4 +2059,304 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E78BF6E-957B-4A0F-A69E-1E2A10E7A8DD}">
+  <dimension ref="B2:Q62"/>
+  <sheetViews>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="P56" sqref="P56"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="9" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B2" s="7" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B7" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B8" s="1"/>
+      <c r="C8" s="4" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B9" s="7">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="E11" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="E12" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="F13" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="F14" t="s">
+        <v>169</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="P14" s="4" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="F15" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="E16" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="C18" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B19" s="7">
+        <v>2</v>
+      </c>
+      <c r="C19" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="E21" t="s">
+        <v>180</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="E23" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="E24" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="F25" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="E26" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="E28" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="E29" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="F30" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="E31" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="E33" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="E34" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="F35" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="36" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="E36" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="38" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="C38" s="4" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B39" s="7">
+        <v>3</v>
+      </c>
+      <c r="C39" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="E41" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="C44" s="4" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B45" s="7">
+        <v>4</v>
+      </c>
+      <c r="C45" t="s">
+        <v>160</v>
+      </c>
+      <c r="P45" s="4" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="E46" s="4" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="E47" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="F48" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="49" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="F49" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="52" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="C52" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q52" s="4"/>
+    </row>
+    <row r="53" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B53" s="7">
+        <v>5</v>
+      </c>
+      <c r="C53" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="54" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="E54" s="4" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="55" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="E55" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="56" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="E56" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="57" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="F57" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="58" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="F58" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="59" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="E59" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="61" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="C61" s="4" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="62" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B62" s="7">
+        <v>6</v>
+      </c>
+      <c r="C62" t="s">
+        <v>167</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B871060E-FD7A-4559-875A-2B2BEC48AF52}">
+  <dimension ref="B2:C3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B2" s="4" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C3" s="4" t="s">
+        <v>184</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/doc/ue_umg.xlsx
+++ b/doc/ue_umg.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D8683B8-9A1D-4FA0-B91C-9DFF861DBB18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34DE0B9C-FDB1-4A13-9793-D705B086A441}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="778" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="778" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="umg" sheetId="3" r:id="rId1"/>
@@ -13,6 +13,7 @@
     <sheet name="切场景销毁" sheetId="5" r:id="rId3"/>
     <sheet name="animation" sheetId="6" r:id="rId4"/>
     <sheet name="Sheet1" sheetId="7" r:id="rId5"/>
+    <sheet name="异步加载" sheetId="8" r:id="rId6"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
@@ -2337,7 +2338,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B871060E-FD7A-4559-875A-2B2BEC48AF52}">
   <dimension ref="B2:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
@@ -2359,4 +2360,18 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA05B045-516C-403F-9600-07421DAA8915}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/doc/ue_umg.xlsx
+++ b/doc/ue_umg.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34DE0B9C-FDB1-4A13-9793-D705B086A441}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBA5B7D6-92CB-42FA-BF98-A425904F7B97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="778" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="778" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="umg" sheetId="3" r:id="rId1"/>
@@ -14,13 +14,14 @@
     <sheet name="animation" sheetId="6" r:id="rId4"/>
     <sheet name="Sheet1" sheetId="7" r:id="rId5"/>
     <sheet name="异步加载" sheetId="8" r:id="rId6"/>
+    <sheet name="TICK" sheetId="9" r:id="rId7"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="223">
   <si>
     <t>Slate</t>
   </si>
@@ -682,6 +683,127 @@
   </si>
   <si>
     <t>例如蓝图动画中设置Image的颜色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void UUserWidget::NativeConstruct()</t>
+  </si>
+  <si>
+    <t>Construct();</t>
+  </si>
+  <si>
+    <t>UpdateCanTick();</t>
+  </si>
+  <si>
+    <t xml:space="preserve">void UUserWidget::UpdateCanTick() </t>
+  </si>
+  <si>
+    <t>TSharedPtr&lt;SObjectWidget&gt; SafeGCWidget = MyGCWidget.Pin();</t>
+  </si>
+  <si>
+    <t>UWorld* World = GetWorld();</t>
+  </si>
+  <si>
+    <t>if(SafeGCWidget.IsValid() &amp;&amp; World)</t>
+  </si>
+  <si>
+    <t>// Default to never tick, only recompute for auto</t>
+  </si>
+  <si>
+    <t>bool bCanTick = false;</t>
+  </si>
+  <si>
+    <t>if (TickFrequency == EWidgetTickFrequency::Auto)</t>
+  </si>
+  <si>
+    <t>// Note: WidgetBPClass can be NULL in a cooked build, if the Blueprint has been nativized (in that case, it will be a UDynamicClass type).</t>
+  </si>
+  <si>
+    <t>UWidgetBlueprintGeneratedClass* WidgetBPClass = Cast&lt;UWidgetBlueprintGeneratedClass&gt;(GetClass());</t>
+  </si>
+  <si>
+    <t>bCanTick |= !WidgetBPClass || WidgetBPClass-&gt;ClassRequiresNativeTick();</t>
+  </si>
+  <si>
+    <t>bCanTick |= bHasScriptImplementedTick;</t>
+  </si>
+  <si>
+    <t>bCanTick |= World-&gt;GetLatentActionManager().GetNumActionsForObject(this) != 0;</t>
+  </si>
+  <si>
+    <t>bCanTick |= ActiveSequencePlayers.Num() &gt; 0;</t>
+  </si>
+  <si>
+    <t>SafeGCWidget-&gt;SetCanTick(bCanTick);</t>
+  </si>
+  <si>
+    <t>！！！这个是重点，设置Widget的属性；如果需要TICK就增加标志位EWidgetUpdateFlags::NeedsTick</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int32 SWidget::Paint(const FPaintArgs&amp; Args, const FGeometry&amp; AllottedGeometry, const FSlateRect&amp; MyCullingRect, FSlateWindowElementList&amp; OutDrawElements, int32 LayerId, const FWidgetStyle&amp; InWidgetStyle, bool bParentEnabled) const</t>
+  </si>
+  <si>
+    <t>对于UserWidget就是Window</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if (HasAnyUpdateFlags(EWidgetUpdateFlags::NeedsTick))</t>
+  </si>
+  <si>
+    <t>INC_DWORD_STAT(STAT_SlateNumTickedWidgets);</t>
+  </si>
+  <si>
+    <t>SCOPE_CYCLE_COUNTER(STAT_SlateTickWidgets);</t>
+  </si>
+  <si>
+    <t>SCOPE_CYCLE_SWIDGET(this);</t>
+  </si>
+  <si>
+    <t>MutableThis-&gt;Tick(DesktopSpaceGeometry, Args.GetCurrentTime(), Args.GetDeltaTime());</t>
+  </si>
+  <si>
+    <t>!!!如果包含TICk标志，就调用Swidget的TICK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册TICK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>触发TICK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void SObjectWidget::Tick( const FGeometry&amp; AllottedGeometry, const double InCurrentTime, const float InDeltaTime )</t>
+  </si>
+  <si>
+    <t>#if SLATE_VERBOSE_NAMED_EVENTS</t>
+  </si>
+  <si>
+    <t>SCOPED_NAMED_EVENT_FSTRING(DebugTickEventName, FColor::Turquoise);</t>
+  </si>
+  <si>
+    <t>#endif</t>
+  </si>
+  <si>
+    <t>#if WITH_VERY_VERBOSE_SLATE_STATS</t>
+  </si>
+  <si>
+    <t>FScopeCycleCounterUObject NativeFunctionScope(WidgetObject);</t>
+  </si>
+  <si>
+    <t>if ( CanRouteEvent() )</t>
+  </si>
+  <si>
+    <t>WidgetObject-&gt;NativeTick(AllottedGeometry, InDeltaTime);</t>
+  </si>
+  <si>
+    <t>回到到UserWidget的TICK里面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！逻辑层的TICK</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2366,7 +2488,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA05B045-516C-403F-9600-07421DAA8915}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I31" sqref="I31"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
@@ -2374,4 +2498,269 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0D160AF-FAB5-4D79-9405-7B92194EEACB}">
+  <dimension ref="A2:P58"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="L35" sqref="L35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C4" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C5" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B6" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C8" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C9" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C11" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C12" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D13" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D14" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D15" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D16" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="E17" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="E18" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="E19" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="E20" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="E21" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="E22" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="D23" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="D25" t="s">
+        <v>201</v>
+      </c>
+      <c r="P25" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="C26" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="B27" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A29" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="B30" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="B31" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="C33" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="C34" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="D35" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="D37" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="D38" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="D39" t="s">
+        <v>209</v>
+      </c>
+      <c r="O39" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="C40" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A43" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="B44" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="B45" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="B46" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="C47" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="B48" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="50" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B50" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="51" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="C51" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="52" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B52" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="54" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="C54" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="55" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="C55" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="56" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="D56" t="s">
+        <v>220</v>
+      </c>
+      <c r="N56" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="57" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="C57" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="58" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B58" t="s">
+        <v>113</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>